--- a/statistics/SPSS/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
@@ -82,7 +82,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
   </cols>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0030990812240812571</v>
+        <v>0.0015495406120406285</v>
       </c>
       <c r="B2" s="0">
-        <v>0.08556196889530221</v>
+        <v>0.042780984447651105</v>
       </c>
       <c r="C2" s="0">
-        <v>0.091350160135738934</v>
+        <v>0.045675080067869467</v>
       </c>
       <c r="D2" s="0">
-        <v>0.033030990173847308</v>
+        <v>0.016515495086923654</v>
       </c>
       <c r="E2" s="0">
-        <v>0.032846749811035525</v>
+        <v>0.016423374905517762</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0027110259308402718</v>
+        <v>-0.0013555129654201359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0027622159975101979</v>
+        <v>-0.0013811079987550989</v>
       </c>
       <c r="B3" s="0">
-        <v>0.034949535369703411</v>
+        <v>0.017474767684851705</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0059779467342492842</v>
+        <v>-0.0029889733671246421</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.022798008092125843</v>
+        <v>-0.011399004046062922</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.035247432306255766</v>
+        <v>-0.017623716153127883</v>
       </c>
       <c r="F3" s="0">
-        <v>0.069727891156462662</v>
+        <v>0.034863945578231331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.022682346211757964</v>
+        <v>-0.011341173105878982</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.033838564665632287</v>
+        <v>-0.016919282332816143</v>
       </c>
       <c r="C4" s="0">
-        <v>0.082314047226327958</v>
+        <v>0.041157023613163979</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.027534708090263704</v>
+        <v>-0.013767354045131852</v>
       </c>
       <c r="E4" s="0">
-        <v>0.017864878244995275</v>
+        <v>0.0089324391224976374</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0093023426356759753</v>
+        <v>0.0046511713178379877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0087985945128802867</v>
+        <v>-0.0043992972564401434</v>
       </c>
       <c r="B5" s="0">
-        <v>0.034344770455881468</v>
+        <v>0.017172385227940734</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.015381591232984382</v>
+        <v>-0.0076907956164921909</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0018705574261129176</v>
+        <v>0.00093527871305645882</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.062548630563336483</v>
+        <v>-0.031274315281668241</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.059936432485452107</v>
+        <v>-0.029968216242726053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.062316895650229076</v>
+        <v>0.031158447825114538</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.075335191822646919</v>
+        <v>-0.037667595911323459</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.02229322705513187</v>
+        <v>-0.011146613527565935</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.03790849673202612</v>
+        <v>-0.01895424836601306</v>
       </c>
       <c r="E6" s="0">
-        <v>0.033696962268390918</v>
+        <v>0.016848481134195459</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.084890446001557041</v>
+        <v>-0.04244522300077852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.058129450610653499</v>
+        <v>0.02906472530532675</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.13756142187514736</v>
+        <v>-0.06878071093757368</v>
       </c>
       <c r="C7" s="0">
-        <v>0.082844749511416294</v>
+        <v>0.041422374755708147</v>
       </c>
       <c r="D7" s="0">
-        <v>0.025925925925925963</v>
+        <v>0.012962962962962982</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.046178193499622155</v>
+        <v>-0.023089096749811078</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.036667506508776426</v>
+        <v>-0.018333753254388213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.09195750372220951</v>
+        <v>0.045978751861104755</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0012323067878621807</v>
+        <v>0.00061615339393109037</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0020891072478373407</v>
+        <v>-0.0010445536239186703</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.035335549224438267</v>
+        <v>-0.017667774612219134</v>
       </c>
       <c r="E8" s="0">
-        <v>0.040679454965169226</v>
+        <v>0.020339727482584613</v>
       </c>
       <c r="F8" s="0">
-        <v>0.036862507348618401</v>
+        <v>0.0184312536743092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.01036906766073431</v>
+        <v>0.0051845338303671551</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.011784068466096143</v>
+        <v>-0.0058920342330480713</v>
       </c>
       <c r="C9" s="0">
-        <v>0.10171038112214581</v>
+        <v>0.050855190561072905</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.033715461493239285</v>
+        <v>-0.016857730746619642</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.038951607579058467</v>
+        <v>-0.019475803789529234</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.029266839939354528</v>
+        <v>-0.014633419969677264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.082675292339157991</v>
+        <v>-0.041337646169578995</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.02659426343636867</v>
+        <v>-0.013297131718184335</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.038407795550652712</v>
+        <v>-0.019203897775326356</v>
       </c>
       <c r="D10" s="0">
-        <v>0.019136543506291515</v>
+        <v>0.0095682717531457573</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.04397254397254402</v>
+        <v>-0.02198627198627201</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0098795073584988513</v>
+        <v>-0.0049397536792494257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.028990299823633159</v>
+        <v>-0.014495149911816579</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.027708159287106682</v>
+        <v>-0.013854079643553341</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.054125554125554198</v>
+        <v>-0.027062777062777099</v>
       </c>
       <c r="D11" s="0">
-        <v>0.016218003718003693</v>
+        <v>0.0081090018590018464</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0025132275132274118</v>
+        <v>-0.0012566137566137059</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0065515759960203535</v>
+        <v>-0.0032757879980101767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.040052053209947924</v>
+        <v>0.020026026604973962</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.040712049483979218</v>
+        <v>-0.020356024741989609</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.025055667912810886</v>
+        <v>-0.012527833956405443</v>
       </c>
       <c r="D12" s="0">
-        <v>0.01001113895850736</v>
+        <v>0.0050055694792536798</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0037108765178940351</v>
+        <v>0.0018554382589470175</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0032560032560032814</v>
+        <v>-0.0016280016280016407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.060277117294661231</v>
+        <v>0.030138558647330616</v>
       </c>
       <c r="B13" s="0">
-        <v>0.065159802659802701</v>
+        <v>0.032579901329901351</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.047204817599554638</v>
+        <v>-0.023602408799777319</v>
       </c>
       <c r="D13" s="0">
-        <v>0.010052910052910036</v>
+        <v>0.0050264550264550178</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.00071790349568112699</v>
+        <v>-0.0003589517478405635</v>
       </c>
       <c r="F13" s="0">
-        <v>0.032440431563238503</v>
+        <v>0.016220215781619252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0045918367346938216</v>
+        <v>-0.0022959183673469108</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.049015285126396302</v>
+        <v>-0.024507642563198151</v>
       </c>
       <c r="C14" s="0">
-        <v>0.10821842250413688</v>
+        <v>0.05410921125206844</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.041345967816556028</v>
+        <v>-0.020672983908278014</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0061490061490063197</v>
+        <v>-0.0030745030745031598</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00248516915183572</v>
+        <v>0.00124258457591786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0076180076180076828</v>
+        <v>-0.0038090038090038414</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0040337957004623615</v>
+        <v>-0.0020168978502311807</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0099514659665035365</v>
+        <v>-0.0049757329832517683</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0056955451692293213</v>
+        <v>0.0028477725846146607</v>
       </c>
       <c r="E15" s="0">
-        <v>0.076646483509228647</v>
+        <v>0.038323241754614323</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0027017074636121463</v>
+        <v>0.0013508537318060732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.07002240335573684</v>
+        <v>-0.03501120167786842</v>
       </c>
       <c r="B16" s="0">
-        <v>0.028449596212754114</v>
+        <v>0.014224798106377057</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.036111202777869444</v>
+        <v>-0.018055601388934722</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.035505430242272373</v>
+        <v>-0.017752715121136187</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0071456738123405472</v>
+        <v>-0.0035728369061702736</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.041964934121797026</v>
+        <v>-0.020982467060898513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.048206937095825964</v>
+        <v>-0.024103468547912982</v>
       </c>
       <c r="B17" s="0">
-        <v>0.016674623065600414</v>
+        <v>0.0083373115328002068</v>
       </c>
       <c r="C17" s="0">
-        <v>0.057986557986557996</v>
+        <v>0.028993278993278998</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.031120864454197872</v>
+        <v>-0.015560432227098936</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.021521521521521425</v>
+        <v>-0.010760760760760713</v>
       </c>
       <c r="F17" s="0">
-        <v>0.048600187489076352</v>
+        <v>0.024300093744538176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.093052848169807356</v>
+        <v>0.046526424084903678</v>
       </c>
       <c r="B18" s="0">
-        <v>0.021261487050960648</v>
+        <v>0.010630743525480324</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.022772071791679727</v>
+        <v>-0.011386035895839863</v>
       </c>
       <c r="D18" s="0">
-        <v>0.056785777374012802</v>
+        <v>0.028392888687006401</v>
       </c>
       <c r="E18" s="0">
-        <v>0.078613420676912849</v>
+        <v>0.039306710338456424</v>
       </c>
       <c r="F18" s="0">
-        <v>0.020939363399680888</v>
+        <v>0.010469681699840444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.083238851095994049</v>
+        <v>-0.041619425547997024</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.023844333054859446</v>
+        <v>-0.011922166527429723</v>
       </c>
       <c r="C19" s="0">
-        <v>0.021209701765257272</v>
+        <v>0.010604850882628636</v>
       </c>
       <c r="D19" s="0">
-        <v>0.089295952299048187</v>
+        <v>0.044647976149524093</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.063235529902196608</v>
+        <v>-0.031617764951098304</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.044461512203447739</v>
+        <v>-0.02223075610172387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089714518285946565</v>
+        <v>-0.0044857259142973283</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.047579534421639647</v>
+        <v>-0.023789767210819823</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.025499706055261639</v>
+        <v>-0.01274985302763082</v>
       </c>
       <c r="D20" s="0">
-        <v>0.053137494313964861</v>
+        <v>0.026568747156982431</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0038665038665039453</v>
+        <v>0.0019332519332519726</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.041738917789338026</v>
+        <v>-0.020869458894669013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0074415074415075111</v>
+        <v>0.0037207537207537555</v>
       </c>
       <c r="B21" s="0">
-        <v>0.082392591164521078</v>
+        <v>0.041196295582260539</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.013878347211680409</v>
+        <v>-0.0069391736058402043</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.047358424551407097</v>
+        <v>-0.023679212275703548</v>
       </c>
       <c r="E21" s="0">
-        <v>0.14540517961570604</v>
+        <v>0.072702589807853019</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.092035258701925415</v>
+        <v>-0.046017629350962708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.024968245556480806</v>
+        <v>-0.012484122778240403</v>
       </c>
       <c r="B22" s="0">
-        <v>0.052294606114050568</v>
+        <v>0.026147303057025284</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0031239979156645337</v>
+        <v>0.0015619989578322668</v>
       </c>
       <c r="D22" s="0">
-        <v>0.019341654790571317</v>
+        <v>0.0096708273952856583</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.010052910052910036</v>
+        <v>-0.0050264550264550178</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.029219695886362418</v>
+        <v>-0.014609847943181209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0271700271700272</v>
+        <v>-0.0135850135850136</v>
       </c>
       <c r="B23" s="0">
-        <v>0.020134420134420072</v>
+        <v>0.010067210067210036</v>
       </c>
       <c r="C23" s="0">
-        <v>0.10913733282154331</v>
+        <v>0.054568666410771655</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.054472054472054499</v>
+        <v>-0.027236027236027249</v>
       </c>
       <c r="E23" s="0">
-        <v>0.11756681493523591</v>
+        <v>0.058783407467617954</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.062208216619981327</v>
+        <v>-0.031104108309990663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.060918060918060901</v>
+        <v>0.030459030459030451</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.089687954454036323</v>
+        <v>-0.044843977227018161</v>
       </c>
       <c r="C24" s="0">
-        <v>0.0066476733143401301</v>
+        <v>0.003323836657170065</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.083402951824004423</v>
+        <v>-0.041701475912002212</v>
       </c>
       <c r="E24" s="0">
-        <v>0.043870359659833325</v>
+        <v>0.021935179829916662</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.049413062570957456</v>
+        <v>-0.024706531285478728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.017628465904328039</v>
+        <v>-0.0088142329521640195</v>
       </c>
       <c r="B25" s="0">
-        <v>0.037037037037036979</v>
+        <v>0.01851851851851849</v>
       </c>
       <c r="C25" s="0">
-        <v>0.032231365564698855</v>
+        <v>0.016115682782349428</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.026455026455026398</v>
+        <v>-0.013227513227513199</v>
       </c>
       <c r="E25" s="0">
-        <v>0.021807645617169413</v>
+        <v>0.010903822808584707</v>
       </c>
       <c r="F25" s="0">
-        <v>0.08620897683397688</v>
+        <v>0.04310448841698844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.10946347349856134</v>
+        <v>-0.054731736749280668</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.016355130640844928</v>
+        <v>-0.0081775653204224641</v>
       </c>
       <c r="C26" s="0">
-        <v>0.013201576927067082</v>
+        <v>0.0066007884635335412</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.04664588057445207</v>
+        <v>-0.023322940287226035</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0076142992809660193</v>
+        <v>-0.0038071496404830096</v>
       </c>
       <c r="F26" s="0">
-        <v>0.05667081647473815</v>
+        <v>0.028335408237369075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.062792308406343533</v>
+        <v>0.031396154203171767</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.03472802376311146</v>
+        <v>-0.01736401188155573</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.018026189454760866</v>
+        <v>-0.0090130947273804329</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.016230516230516245</v>
+        <v>-0.0081152581152581227</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0065120065120065074</v>
+        <v>-0.0032560032560032537</v>
       </c>
       <c r="F27" s="0">
-        <v>0.050622050622050607</v>
+        <v>0.025311025311025304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0055996472663140673</v>
+        <v>-0.0027998236331570336</v>
       </c>
       <c r="B28" s="0">
-        <v>0.02271857110566794</v>
+        <v>0.01135928555283397</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.067146511590956137</v>
+        <v>-0.033573255795478069</v>
       </c>
       <c r="D28" s="0">
-        <v>0.042290249433106664</v>
+        <v>0.021145124716553332</v>
       </c>
       <c r="E28" s="0">
-        <v>0.047136273864384515</v>
+        <v>0.023568136932192257</v>
       </c>
       <c r="F28" s="0">
-        <v>7.7808901338405345e-05</v>
+        <v>3.8904450669202673e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0082149818991924528</v>
+        <v>0.0041074909495962264</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00046566713233381352</v>
+        <v>0.00023283356616690676</v>
       </c>
       <c r="C29" s="0">
-        <v>0.057841571730460728</v>
+        <v>0.028920785865230364</v>
       </c>
       <c r="D29" s="0">
-        <v>0.017543859649122751</v>
+        <v>0.0087719298245613753</v>
       </c>
       <c r="E29" s="0">
-        <v>0.076838062552348207</v>
+        <v>0.038419031276174104</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.030459030459030423</v>
+        <v>-0.015229515229515211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.077520377520377437</v>
+        <v>0.038760188760188719</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.044026169026169071</v>
+        <v>-0.022013084513084535</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0036882120215453451</v>
+        <v>0.0018441060107726726</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0054214929214929652</v>
+        <v>-0.0027107464607464826</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.055621693121693183</v>
+        <v>-0.027810846560846592</v>
       </c>
       <c r="F30" s="0">
-        <v>0.040463395726553553</v>
+        <v>0.020231697863276776</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
@@ -82,7 +82,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
   </cols>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0015495406120406285</v>
+        <v>0.0030990812240812571</v>
       </c>
       <c r="B2" s="0">
-        <v>0.042780984447651105</v>
+        <v>0.08556196889530221</v>
       </c>
       <c r="C2" s="0">
-        <v>0.045675080067869467</v>
+        <v>0.091350160135738934</v>
       </c>
       <c r="D2" s="0">
-        <v>0.016515495086923654</v>
+        <v>0.033030990173847308</v>
       </c>
       <c r="E2" s="0">
-        <v>0.016423374905517762</v>
+        <v>0.032846749811035525</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0013555129654201359</v>
+        <v>-0.0027110259308402718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0013811079987550989</v>
+        <v>-0.0027622159975101979</v>
       </c>
       <c r="B3" s="0">
-        <v>0.017474767684851705</v>
+        <v>0.034949535369703411</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0029889733671246421</v>
+        <v>-0.0059779467342492842</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.011399004046062922</v>
+        <v>-0.022798008092125843</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.017623716153127883</v>
+        <v>-0.035247432306255766</v>
       </c>
       <c r="F3" s="0">
-        <v>0.034863945578231331</v>
+        <v>0.069727891156462662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011341173105878982</v>
+        <v>-0.022682346211757964</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.016919282332816143</v>
+        <v>-0.033838564665632287</v>
       </c>
       <c r="C4" s="0">
-        <v>0.041157023613163979</v>
+        <v>0.082314047226327958</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.013767354045131852</v>
+        <v>-0.027534708090263704</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0089324391224976374</v>
+        <v>0.017864878244995275</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0046511713178379877</v>
+        <v>0.0093023426356759753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0043992972564401434</v>
+        <v>-0.0087985945128802867</v>
       </c>
       <c r="B5" s="0">
-        <v>0.017172385227940734</v>
+        <v>0.034344770455881468</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0076907956164921909</v>
+        <v>-0.015381591232984382</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00093527871305645882</v>
+        <v>0.0018705574261129176</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.031274315281668241</v>
+        <v>-0.062548630563336483</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.029968216242726053</v>
+        <v>-0.059936432485452107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.031158447825114538</v>
+        <v>0.062316895650229076</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.037667595911323459</v>
+        <v>-0.075335191822646919</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.011146613527565935</v>
+        <v>-0.02229322705513187</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.01895424836601306</v>
+        <v>-0.03790849673202612</v>
       </c>
       <c r="E6" s="0">
-        <v>0.016848481134195459</v>
+        <v>0.033696962268390918</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.04244522300077852</v>
+        <v>-0.084890446001557041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.02906472530532675</v>
+        <v>0.058129450610653499</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.06878071093757368</v>
+        <v>-0.13756142187514736</v>
       </c>
       <c r="C7" s="0">
-        <v>0.041422374755708147</v>
+        <v>0.082844749511416294</v>
       </c>
       <c r="D7" s="0">
-        <v>0.012962962962962982</v>
+        <v>0.025925925925925963</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.023089096749811078</v>
+        <v>-0.046178193499622155</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.018333753254388213</v>
+        <v>-0.036667506508776426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.045978751861104755</v>
+        <v>0.09195750372220951</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00061615339393109037</v>
+        <v>0.0012323067878621807</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0010445536239186703</v>
+        <v>-0.0020891072478373407</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.017667774612219134</v>
+        <v>-0.035335549224438267</v>
       </c>
       <c r="E8" s="0">
-        <v>0.020339727482584613</v>
+        <v>0.040679454965169226</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0184312536743092</v>
+        <v>0.036862507348618401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0051845338303671551</v>
+        <v>0.01036906766073431</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0058920342330480713</v>
+        <v>-0.011784068466096143</v>
       </c>
       <c r="C9" s="0">
-        <v>0.050855190561072905</v>
+        <v>0.10171038112214581</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.016857730746619642</v>
+        <v>-0.033715461493239285</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.019475803789529234</v>
+        <v>-0.038951607579058467</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.014633419969677264</v>
+        <v>-0.029266839939354528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.041337646169578995</v>
+        <v>-0.082675292339157991</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.013297131718184335</v>
+        <v>-0.02659426343636867</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.019203897775326356</v>
+        <v>-0.038407795550652712</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0095682717531457573</v>
+        <v>0.019136543506291515</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.02198627198627201</v>
+        <v>-0.04397254397254402</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0049397536792494257</v>
+        <v>-0.0098795073584988513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.014495149911816579</v>
+        <v>-0.028990299823633159</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.013854079643553341</v>
+        <v>-0.027708159287106682</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.027062777062777099</v>
+        <v>-0.054125554125554198</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0081090018590018464</v>
+        <v>0.016218003718003693</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0012566137566137059</v>
+        <v>-0.0025132275132274118</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0032757879980101767</v>
+        <v>-0.0065515759960203535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.020026026604973962</v>
+        <v>0.040052053209947924</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.020356024741989609</v>
+        <v>-0.040712049483979218</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.012527833956405443</v>
+        <v>-0.025055667912810886</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0050055694792536798</v>
+        <v>0.01001113895850736</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0018554382589470175</v>
+        <v>0.0037108765178940351</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0016280016280016407</v>
+        <v>-0.0032560032560032814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.030138558647330616</v>
+        <v>0.060277117294661231</v>
       </c>
       <c r="B13" s="0">
-        <v>0.032579901329901351</v>
+        <v>0.065159802659802701</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.023602408799777319</v>
+        <v>-0.047204817599554638</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0050264550264550178</v>
+        <v>0.010052910052910036</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0003589517478405635</v>
+        <v>-0.00071790349568112699</v>
       </c>
       <c r="F13" s="0">
-        <v>0.016220215781619252</v>
+        <v>0.032440431563238503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0022959183673469108</v>
+        <v>-0.0045918367346938216</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.024507642563198151</v>
+        <v>-0.049015285126396302</v>
       </c>
       <c r="C14" s="0">
-        <v>0.05410921125206844</v>
+        <v>0.10821842250413688</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.020672983908278014</v>
+        <v>-0.041345967816556028</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0030745030745031598</v>
+        <v>-0.0061490061490063197</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00124258457591786</v>
+        <v>0.00248516915183572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0038090038090038414</v>
+        <v>-0.0076180076180076828</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0020168978502311807</v>
+        <v>-0.0040337957004623615</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0049757329832517683</v>
+        <v>-0.0099514659665035365</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0028477725846146607</v>
+        <v>0.0056955451692293213</v>
       </c>
       <c r="E15" s="0">
-        <v>0.038323241754614323</v>
+        <v>0.076646483509228647</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0013508537318060732</v>
+        <v>0.0027017074636121463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.03501120167786842</v>
+        <v>-0.07002240335573684</v>
       </c>
       <c r="B16" s="0">
-        <v>0.014224798106377057</v>
+        <v>0.028449596212754114</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.018055601388934722</v>
+        <v>-0.036111202777869444</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.017752715121136187</v>
+        <v>-0.035505430242272373</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0035728369061702736</v>
+        <v>-0.0071456738123405472</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.020982467060898513</v>
+        <v>-0.041964934121797026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.024103468547912982</v>
+        <v>-0.048206937095825964</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0083373115328002068</v>
+        <v>0.016674623065600414</v>
       </c>
       <c r="C17" s="0">
-        <v>0.028993278993278998</v>
+        <v>0.057986557986557996</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.015560432227098936</v>
+        <v>-0.031120864454197872</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.010760760760760713</v>
+        <v>-0.021521521521521425</v>
       </c>
       <c r="F17" s="0">
-        <v>0.024300093744538176</v>
+        <v>0.048600187489076352</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.046526424084903678</v>
+        <v>0.093052848169807356</v>
       </c>
       <c r="B18" s="0">
-        <v>0.010630743525480324</v>
+        <v>0.021261487050960648</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.011386035895839863</v>
+        <v>-0.022772071791679727</v>
       </c>
       <c r="D18" s="0">
-        <v>0.028392888687006401</v>
+        <v>0.056785777374012802</v>
       </c>
       <c r="E18" s="0">
-        <v>0.039306710338456424</v>
+        <v>0.078613420676912849</v>
       </c>
       <c r="F18" s="0">
-        <v>0.010469681699840444</v>
+        <v>0.020939363399680888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.041619425547997024</v>
+        <v>-0.083238851095994049</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.011922166527429723</v>
+        <v>-0.023844333054859446</v>
       </c>
       <c r="C19" s="0">
-        <v>0.010604850882628636</v>
+        <v>0.021209701765257272</v>
       </c>
       <c r="D19" s="0">
-        <v>0.044647976149524093</v>
+        <v>0.089295952299048187</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.031617764951098304</v>
+        <v>-0.063235529902196608</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.02223075610172387</v>
+        <v>-0.044461512203447739</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0044857259142973283</v>
+        <v>-0.0089714518285946565</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.023789767210819823</v>
+        <v>-0.047579534421639647</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.01274985302763082</v>
+        <v>-0.025499706055261639</v>
       </c>
       <c r="D20" s="0">
-        <v>0.026568747156982431</v>
+        <v>0.053137494313964861</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0019332519332519726</v>
+        <v>0.0038665038665039453</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.020869458894669013</v>
+        <v>-0.041738917789338026</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0037207537207537555</v>
+        <v>0.0074415074415075111</v>
       </c>
       <c r="B21" s="0">
-        <v>0.041196295582260539</v>
+        <v>0.082392591164521078</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.0069391736058402043</v>
+        <v>-0.013878347211680409</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.023679212275703548</v>
+        <v>-0.047358424551407097</v>
       </c>
       <c r="E21" s="0">
-        <v>0.072702589807853019</v>
+        <v>0.14540517961570604</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.046017629350962708</v>
+        <v>-0.092035258701925415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.012484122778240403</v>
+        <v>-0.024968245556480806</v>
       </c>
       <c r="B22" s="0">
-        <v>0.026147303057025284</v>
+        <v>0.052294606114050568</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0015619989578322668</v>
+        <v>0.0031239979156645337</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0096708273952856583</v>
+        <v>0.019341654790571317</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.0050264550264550178</v>
+        <v>-0.010052910052910036</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.014609847943181209</v>
+        <v>-0.029219695886362418</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0135850135850136</v>
+        <v>-0.0271700271700272</v>
       </c>
       <c r="B23" s="0">
-        <v>0.010067210067210036</v>
+        <v>0.020134420134420072</v>
       </c>
       <c r="C23" s="0">
-        <v>0.054568666410771655</v>
+        <v>0.10913733282154331</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.027236027236027249</v>
+        <v>-0.054472054472054499</v>
       </c>
       <c r="E23" s="0">
-        <v>0.058783407467617954</v>
+        <v>0.11756681493523591</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.031104108309990663</v>
+        <v>-0.062208216619981327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.030459030459030451</v>
+        <v>0.060918060918060901</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.044843977227018161</v>
+        <v>-0.089687954454036323</v>
       </c>
       <c r="C24" s="0">
-        <v>0.003323836657170065</v>
+        <v>0.0066476733143401301</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.041701475912002212</v>
+        <v>-0.083402951824004423</v>
       </c>
       <c r="E24" s="0">
-        <v>0.021935179829916662</v>
+        <v>0.043870359659833325</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.024706531285478728</v>
+        <v>-0.049413062570957456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0088142329521640195</v>
+        <v>-0.017628465904328039</v>
       </c>
       <c r="B25" s="0">
-        <v>0.01851851851851849</v>
+        <v>0.037037037037036979</v>
       </c>
       <c r="C25" s="0">
-        <v>0.016115682782349428</v>
+        <v>0.032231365564698855</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.013227513227513199</v>
+        <v>-0.026455026455026398</v>
       </c>
       <c r="E25" s="0">
-        <v>0.010903822808584707</v>
+        <v>0.021807645617169413</v>
       </c>
       <c r="F25" s="0">
-        <v>0.04310448841698844</v>
+        <v>0.08620897683397688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.054731736749280668</v>
+        <v>-0.10946347349856134</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0081775653204224641</v>
+        <v>-0.016355130640844928</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0066007884635335412</v>
+        <v>0.013201576927067082</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.023322940287226035</v>
+        <v>-0.04664588057445207</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0038071496404830096</v>
+        <v>-0.0076142992809660193</v>
       </c>
       <c r="F26" s="0">
-        <v>0.028335408237369075</v>
+        <v>0.05667081647473815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.031396154203171767</v>
+        <v>0.062792308406343533</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.01736401188155573</v>
+        <v>-0.03472802376311146</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.0090130947273804329</v>
+        <v>-0.018026189454760866</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0081152581152581227</v>
+        <v>-0.016230516230516245</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0032560032560032537</v>
+        <v>-0.0065120065120065074</v>
       </c>
       <c r="F27" s="0">
-        <v>0.025311025311025304</v>
+        <v>0.050622050622050607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0027998236331570336</v>
+        <v>-0.0055996472663140673</v>
       </c>
       <c r="B28" s="0">
-        <v>0.01135928555283397</v>
+        <v>0.02271857110566794</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.033573255795478069</v>
+        <v>-0.067146511590956137</v>
       </c>
       <c r="D28" s="0">
-        <v>0.021145124716553332</v>
+        <v>0.042290249433106664</v>
       </c>
       <c r="E28" s="0">
-        <v>0.023568136932192257</v>
+        <v>0.047136273864384515</v>
       </c>
       <c r="F28" s="0">
-        <v>3.8904450669202673e-05</v>
+        <v>7.7808901338405345e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0041074909495962264</v>
+        <v>0.0082149818991924528</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00023283356616690676</v>
+        <v>0.00046566713233381352</v>
       </c>
       <c r="C29" s="0">
-        <v>0.028920785865230364</v>
+        <v>0.057841571730460728</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0087719298245613753</v>
+        <v>0.017543859649122751</v>
       </c>
       <c r="E29" s="0">
-        <v>0.038419031276174104</v>
+        <v>0.076838062552348207</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.015229515229515211</v>
+        <v>-0.030459030459030423</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.038760188760188719</v>
+        <v>0.077520377520377437</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.022013084513084535</v>
+        <v>-0.044026169026169071</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0018441060107726726</v>
+        <v>0.0036882120215453451</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0027107464607464826</v>
+        <v>-0.0054214929214929652</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.027810846560846592</v>
+        <v>-0.055621693121693183</v>
       </c>
       <c r="F30" s="0">
-        <v>0.020231697863276776</v>
+        <v>0.040463395726553553</v>
       </c>
     </row>
   </sheetData>
